--- a/data/seguimiento_pre.xlsx
+++ b/data/seguimiento_pre.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N19"/>
+  <dimension ref="A1:N24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1530,7 +1530,7 @@
           <t>E18</t>
         </is>
       </c>
-      <c r="H19" s="3" t="n">
+      <c r="H19" s="2" t="n">
         <v>45743</v>
       </c>
       <c r="I19" s="2" t="n">
@@ -1553,6 +1553,296 @@
         </is>
       </c>
       <c r="N19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Auditoria</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Auditorias Ambientales</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>2026</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Trimestre 4</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Diseño de estrategias y acciones</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>11</v>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>E20</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="n">
+        <v>45743</v>
+      </c>
+      <c r="I20" s="2" t="n">
+        <v>45743</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>Completado</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>Nestor Espínola</t>
+        </is>
+      </c>
+      <c r="N20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Auditoria</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Auditorias Ambientales</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>2026</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Trimestre 4</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Planificacion de trabajo</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>11</v>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>E20</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="n">
+        <v>45743</v>
+      </c>
+      <c r="I21" s="2" t="n">
+        <v>45743</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>Completado</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>Nestor Espínola</t>
+        </is>
+      </c>
+      <c r="N21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Auditoria</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Auditorias Ambientales</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>2026</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Trimestre 4</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Ejecuccion</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>11</v>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>E20</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="n">
+        <v>45743</v>
+      </c>
+      <c r="I22" s="2" t="n">
+        <v>45743</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>Completado</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>Nestor Espínola</t>
+        </is>
+      </c>
+      <c r="N22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Auditoria</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Auditorias Ambientales</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>2026</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Trimestre 4</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Ejecuccion</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>11</v>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>E20</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="n">
+        <v>45743</v>
+      </c>
+      <c r="I23" s="2" t="n">
+        <v>45743</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>Completado</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>Nestor Espínola</t>
+        </is>
+      </c>
+      <c r="N23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Auditoria</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Sistema de Auditoria</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>2024</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Trimestre 4</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Auditoría de trabajos planificados</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>10</v>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>E18</t>
+        </is>
+      </c>
+      <c r="H24" s="3" t="n">
+        <v>45743</v>
+      </c>
+      <c r="I24" s="2" t="n">
+        <v>45743</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>Completado</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>Nestor Espínola</t>
+        </is>
+      </c>
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
